--- a/biology/Botanique/Liste_des_espèces_végétales_protégées_en_Bretagne/Liste_des_espèces_végétales_protégées_en_Bretagne.xlsx
+++ b/biology/Botanique/Liste_des_espèces_végétales_protégées_en_Bretagne/Liste_des_espèces_végétales_protégées_en_Bretagne.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_v%C3%A9g%C3%A9tales_prot%C3%A9g%C3%A9es_en_Bretagne</t>
+          <t>Liste_des_espèces_végétales_protégées_en_Bretagne</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La liste des espèces protégées en Bretagne est une liste officielle définie par le gouvernement français, recensant les espèces végétales qui sont protégées sur le territoire de la région Bretagne, en complément de celles qui sont déjà protégées sur le territoire métropolitain. Elle a été publiée dans un arrêté du 23 juillet 1987[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La liste des espèces protégées en Bretagne est une liste officielle définie par le gouvernement français, recensant les espèces végétales qui sont protégées sur le territoire de la région Bretagne, en complément de celles qui sont déjà protégées sur le territoire métropolitain. Elle a été publiée dans un arrêté du 23 juillet 1987.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_v%C3%A9g%C3%A9tales_prot%C3%A9g%C3%A9es_en_Bretagne</t>
+          <t>Liste_des_espèces_végétales_protégées_en_Bretagne</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Ptéridophytes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Adiantum capillus-veneris L., Capillaire de Montpellier-Cheveux de Vénus
@@ -534,7 +548,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_v%C3%A9g%C3%A9tales_prot%C3%A9g%C3%A9es_en_Bretagne</t>
+          <t>Liste_des_espèces_végétales_protégées_en_Bretagne</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -554,7 +568,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Monocotylédones
+          <t>Monocotylédones</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Allium ericetorum Thore, Ail des landes
 Allium schoenoprasum L., Civette - Ciboulette - Kraksivolez
 Avenula marginata ssp. marginata anciennement Avenula marginata (Lowe) J. Hol. ssp. sulcata (Gay) Franco, Avoine marginée
@@ -574,7 +594,43 @@
 Schoenoplectus triqueter (L.) Palla anciennement Scirpus triqueter L., Scirpe triquètre
 Serapias cordigera L., Sérapias en cœur
 Serapias lingua L., Serapias langue
-Dicotylédones
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_végétales_protégées_en_Bretagne</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_v%C3%A9g%C3%A9tales_prot%C3%A9g%C3%A9es_en_Bretagne</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Phanérogames</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Dicotylédones</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Achillea maritima (L.) Ehrend. &amp; Y.P.Guo anciennement Otanthus maritimus (L.) Hoffm., Diotis cotonneuse, Diotis maritime
 Adenocarpus complicatus (L.) Gay, Adénocarpe
 Arbutus unedo L., Arbousier, arbre aux fraises
